--- a/input_data/flow_scen/FallFlows20250811_Draft 1.xlsx
+++ b/input_data/flow_scen/FallFlows20250811_Draft 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/ebuttermore_usbr_gov/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/cehlo_usbr_gov/Documents/Redd_dewatering/Fall_Flow_Redd_Dewatering/input_data/flow_scen/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="13" documentId="8_{5FFD583B-F00E-44AB-87C7-B186200BC87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3934ADDB-74E8-4581-876B-939EF8392735}"/>
   <bookViews>
-    <workbookView xWindow="-29055" yWindow="-390" windowWidth="28485" windowHeight="14640" tabRatio="876" firstSheet="5" activeTab="5" xr2:uid="{8B6B0201-DD1B-4D0A-8FA2-1793C828B1EC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="876" activeTab="5" xr2:uid="{8B6B0201-DD1B-4D0A-8FA2-1793C828B1EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Keswick Flow Alternatives" sheetId="3" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8510,7 +8510,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8518,6 +8517,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -20993,7 +20993,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -21001,6 +21000,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -22297,9 +22297,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -22337,7 +22337,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -22443,7 +22443,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -22585,7 +22585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -22597,12 +22597,12 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="18" customWidth="1"/>
@@ -22622,13 +22622,13 @@
     <col min="18" max="16384" width="8.5703125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="27" customFormat="1">
+    <row r="2" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
@@ -22665,7 +22665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="27" customFormat="1">
+    <row r="3" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
         <v>45870</v>
       </c>
@@ -22699,7 +22699,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="27" customFormat="1">
+    <row r="4" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>45871</v>
       </c>
@@ -22733,7 +22733,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="27" customFormat="1">
+    <row r="5" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>45872</v>
       </c>
@@ -22767,7 +22767,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="27" customFormat="1">
+    <row r="6" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>45873</v>
       </c>
@@ -22801,7 +22801,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="27" customFormat="1">
+    <row r="7" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>45874</v>
       </c>
@@ -22835,7 +22835,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="27" customFormat="1">
+    <row r="8" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>45875</v>
       </c>
@@ -22869,7 +22869,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="27" customFormat="1">
+    <row r="9" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>45876</v>
       </c>
@@ -22903,7 +22903,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="27" customFormat="1">
+    <row r="10" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <v>45877</v>
       </c>
@@ -22937,7 +22937,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="27" customFormat="1">
+    <row r="11" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>45878</v>
       </c>
@@ -22971,7 +22971,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="27" customFormat="1">
+    <row r="12" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>45879</v>
       </c>
@@ -23005,7 +23005,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="27" customFormat="1">
+    <row r="13" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>45880</v>
       </c>
@@ -23039,7 +23039,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="27" customFormat="1">
+    <row r="14" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>45881</v>
       </c>
@@ -23073,7 +23073,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="27" customFormat="1">
+    <row r="15" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>45882</v>
       </c>
@@ -23107,7 +23107,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="27" customFormat="1">
+    <row r="16" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>45883</v>
       </c>
@@ -23141,7 +23141,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="27" customFormat="1">
+    <row r="17" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>45884</v>
       </c>
@@ -23175,7 +23175,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="27" customFormat="1">
+    <row r="18" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>45885</v>
       </c>
@@ -23209,7 +23209,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="27" customFormat="1">
+    <row r="19" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>45886</v>
       </c>
@@ -23243,7 +23243,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="27" customFormat="1">
+    <row r="20" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>45887</v>
       </c>
@@ -23277,7 +23277,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="27" customFormat="1">
+    <row r="21" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>45888</v>
       </c>
@@ -23311,7 +23311,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="27" customFormat="1">
+    <row r="22" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>45889</v>
       </c>
@@ -23345,7 +23345,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="27" customFormat="1">
+    <row r="23" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>45890</v>
       </c>
@@ -23379,7 +23379,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="27" customFormat="1">
+    <row r="24" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>45891</v>
       </c>
@@ -23413,7 +23413,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="27" customFormat="1">
+    <row r="25" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>45892</v>
       </c>
@@ -23447,7 +23447,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="27" customFormat="1">
+    <row r="26" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>45893</v>
       </c>
@@ -23481,7 +23481,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="27" customFormat="1">
+    <row r="27" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>45894</v>
       </c>
@@ -23515,7 +23515,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="27" customFormat="1">
+    <row r="28" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>45895</v>
       </c>
@@ -23549,7 +23549,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="27" customFormat="1">
+    <row r="29" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>45896</v>
       </c>
@@ -23583,7 +23583,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="27" customFormat="1">
+    <row r="30" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>45897</v>
       </c>
@@ -23617,7 +23617,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="27" customFormat="1">
+    <row r="31" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>45898</v>
       </c>
@@ -23651,7 +23651,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="27" customFormat="1">
+    <row r="32" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>45899</v>
       </c>
@@ -23685,7 +23685,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="27" customFormat="1">
+    <row r="33" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>45900</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="27" customFormat="1">
+    <row r="34" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>45901</v>
       </c>
@@ -23755,7 +23755,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="27" customFormat="1">
+    <row r="35" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>45902</v>
       </c>
@@ -23791,7 +23791,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="27" customFormat="1">
+    <row r="36" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>45903</v>
       </c>
@@ -23827,7 +23827,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="27" customFormat="1">
+    <row r="37" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>45904</v>
       </c>
@@ -23863,7 +23863,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="27" customFormat="1">
+    <row r="38" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>45905</v>
       </c>
@@ -23899,7 +23899,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>45906</v>
       </c>
@@ -23935,7 +23935,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>45907</v>
       </c>
@@ -23971,7 +23971,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>45908</v>
       </c>
@@ -24007,7 +24007,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>45909</v>
       </c>
@@ -24043,7 +24043,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <v>45910</v>
       </c>
@@ -24079,7 +24079,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>45911</v>
       </c>
@@ -24115,7 +24115,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>45912</v>
       </c>
@@ -24151,7 +24151,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <v>45913</v>
       </c>
@@ -24187,7 +24187,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <v>45914</v>
       </c>
@@ -24223,7 +24223,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <v>45915</v>
       </c>
@@ -24259,7 +24259,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <v>45916</v>
       </c>
@@ -24295,7 +24295,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <v>45917</v>
       </c>
@@ -24331,7 +24331,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <v>45918</v>
       </c>
@@ -24367,7 +24367,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <v>45919</v>
       </c>
@@ -24403,7 +24403,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
         <v>45920</v>
       </c>
@@ -24439,7 +24439,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <v>45921</v>
       </c>
@@ -24475,7 +24475,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <v>45922</v>
       </c>
@@ -24511,7 +24511,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
         <v>45923</v>
       </c>
@@ -24547,7 +24547,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <v>45924</v>
       </c>
@@ -24583,7 +24583,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <v>45925</v>
       </c>
@@ -24619,7 +24619,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>45926</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <v>45927</v>
       </c>
@@ -24691,7 +24691,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <v>45928</v>
       </c>
@@ -24727,7 +24727,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
         <v>45929</v>
       </c>
@@ -24763,7 +24763,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="39">
         <v>45930</v>
       </c>
@@ -24799,7 +24799,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <v>45931</v>
       </c>
@@ -24835,7 +24835,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>45932</v>
       </c>
@@ -24871,7 +24871,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <v>45933</v>
       </c>
@@ -24907,7 +24907,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <v>45934</v>
       </c>
@@ -24943,7 +24943,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <v>45935</v>
       </c>
@@ -24979,7 +24979,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="39">
         <v>45936</v>
       </c>
@@ -25015,7 +25015,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <v>45937</v>
       </c>
@@ -25051,7 +25051,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <v>45938</v>
       </c>
@@ -25087,7 +25087,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
         <v>45939</v>
       </c>
@@ -25123,7 +25123,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <v>45940</v>
       </c>
@@ -25159,7 +25159,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <v>45941</v>
       </c>
@@ -25195,7 +25195,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="39">
         <v>45942</v>
       </c>
@@ -25231,7 +25231,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>45943</v>
       </c>
@@ -25267,7 +25267,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <v>45944</v>
       </c>
@@ -25303,7 +25303,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <v>45945</v>
       </c>
@@ -25339,7 +25339,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
         <v>45946</v>
       </c>
@@ -25375,7 +25375,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
         <v>45947</v>
       </c>
@@ -25411,7 +25411,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <v>45948</v>
       </c>
@@ -25447,7 +25447,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
         <v>45949</v>
       </c>
@@ -25483,7 +25483,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <v>45950</v>
       </c>
@@ -25519,7 +25519,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <v>45951</v>
       </c>
@@ -25555,7 +25555,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <v>45952</v>
       </c>
@@ -25591,7 +25591,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
         <v>45953</v>
       </c>
@@ -25627,7 +25627,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <v>45954</v>
       </c>
@@ -25663,7 +25663,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
         <v>45955</v>
       </c>
@@ -25699,7 +25699,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
         <v>45956</v>
       </c>
@@ -25735,7 +25735,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
         <v>45957</v>
       </c>
@@ -25771,7 +25771,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <v>45958</v>
       </c>
@@ -25807,7 +25807,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <v>45959</v>
       </c>
@@ -25843,7 +25843,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
         <v>45960</v>
       </c>
@@ -25879,7 +25879,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
         <v>45961</v>
       </c>
@@ -25915,7 +25915,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
         <v>45962</v>
       </c>
@@ -25951,7 +25951,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <v>45963</v>
       </c>
@@ -25987,7 +25987,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <v>45964</v>
       </c>
@@ -26023,7 +26023,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <v>45965</v>
       </c>
@@ -26059,7 +26059,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <v>45966</v>
       </c>
@@ -26095,7 +26095,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
         <v>45967</v>
       </c>
@@ -26131,7 +26131,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <v>45968</v>
       </c>
@@ -26167,7 +26167,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
         <v>45969</v>
       </c>
@@ -26203,7 +26203,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <v>45970</v>
       </c>
@@ -26239,7 +26239,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
         <v>45971</v>
       </c>
@@ -26275,7 +26275,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <v>45972</v>
       </c>
@@ -26311,7 +26311,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
         <v>45973</v>
       </c>
@@ -26347,7 +26347,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
         <v>45974</v>
       </c>
@@ -26383,7 +26383,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
         <v>45975</v>
       </c>
@@ -26419,7 +26419,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
         <v>45976</v>
       </c>
@@ -26455,7 +26455,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
         <v>45977</v>
       </c>
@@ -26491,7 +26491,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
         <v>45978</v>
       </c>
@@ -26527,7 +26527,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
         <v>45979</v>
       </c>
@@ -26563,7 +26563,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
         <v>45980</v>
       </c>
@@ -26599,7 +26599,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
         <v>45981</v>
       </c>
@@ -26635,7 +26635,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
         <v>45982</v>
       </c>
@@ -26671,7 +26671,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
         <v>45983</v>
       </c>
@@ -26707,7 +26707,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <v>45984</v>
       </c>
@@ -26743,7 +26743,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
         <v>45985</v>
       </c>
@@ -26779,7 +26779,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
         <v>45986</v>
       </c>
@@ -26815,7 +26815,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
         <v>45987</v>
       </c>
@@ -26851,7 +26851,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
         <v>45988</v>
       </c>
@@ -26887,7 +26887,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
         <v>45989</v>
       </c>
@@ -26923,7 +26923,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
         <v>45990</v>
       </c>
@@ -26959,7 +26959,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
         <v>45991</v>
       </c>
@@ -26995,7 +26995,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="39">
         <v>45992</v>
       </c>
@@ -27031,7 +27031,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="39">
         <v>45993</v>
       </c>
@@ -27067,7 +27067,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="39">
         <v>45994</v>
       </c>
@@ -27103,7 +27103,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="39">
         <v>45995</v>
       </c>
@@ -27139,7 +27139,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="39">
         <v>45996</v>
       </c>
@@ -27175,7 +27175,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>45997</v>
       </c>
@@ -27211,7 +27211,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <v>45998</v>
       </c>
@@ -27247,7 +27247,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="39">
         <v>45999</v>
       </c>
@@ -27283,7 +27283,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="39">
         <v>46000</v>
       </c>
@@ -27319,7 +27319,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="39">
         <v>46001</v>
       </c>
@@ -27355,7 +27355,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="39">
         <v>46002</v>
       </c>
@@ -27391,7 +27391,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="39">
         <v>46003</v>
       </c>
@@ -27427,7 +27427,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="39">
         <v>46004</v>
       </c>
@@ -27463,7 +27463,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="39">
         <v>46005</v>
       </c>
@@ -27499,7 +27499,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="39">
         <v>46006</v>
       </c>
@@ -27535,7 +27535,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="39">
         <v>46007</v>
       </c>
@@ -27571,7 +27571,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="39">
         <v>46008</v>
       </c>
@@ -27607,7 +27607,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="39">
         <v>46009</v>
       </c>
@@ -27643,7 +27643,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="39">
         <v>46010</v>
       </c>
@@ -27679,7 +27679,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="39">
         <v>46011</v>
       </c>
@@ -27715,7 +27715,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="39">
         <v>46012</v>
       </c>
@@ -27751,7 +27751,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="39">
         <v>46013</v>
       </c>
@@ -27787,7 +27787,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="39">
         <v>46014</v>
       </c>
@@ -27823,7 +27823,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="39">
         <v>46015</v>
       </c>
@@ -27859,7 +27859,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="39">
         <v>46016</v>
       </c>
@@ -27895,7 +27895,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="39">
         <v>46017</v>
       </c>
@@ -27931,7 +27931,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="39">
         <v>46018</v>
       </c>
@@ -27967,7 +27967,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="39">
         <v>46019</v>
       </c>
@@ -28003,7 +28003,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="39">
         <v>46020</v>
       </c>
@@ -28039,7 +28039,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="39">
         <v>46021</v>
       </c>
@@ -28075,7 +28075,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="39">
         <v>46022</v>
       </c>
@@ -28111,7 +28111,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="39">
         <v>46023</v>
       </c>
@@ -28147,7 +28147,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="39">
         <v>46024</v>
       </c>
@@ -28183,7 +28183,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="39">
         <v>46025</v>
       </c>
@@ -28219,7 +28219,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="39">
         <v>46026</v>
       </c>
@@ -28255,7 +28255,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="39">
         <v>46027</v>
       </c>
@@ -28291,7 +28291,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="39">
         <v>46028</v>
       </c>
@@ -28327,7 +28327,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="39">
         <v>46029</v>
       </c>
@@ -28363,7 +28363,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="39">
         <v>46030</v>
       </c>
@@ -28399,7 +28399,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="39">
         <v>46031</v>
       </c>
@@ -28435,7 +28435,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="39">
         <v>46032</v>
       </c>
@@ -28471,7 +28471,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="39">
         <v>46033</v>
       </c>
@@ -28507,7 +28507,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="39">
         <v>46034</v>
       </c>
@@ -28543,7 +28543,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="39">
         <v>46035</v>
       </c>
@@ -28579,7 +28579,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="39">
         <v>46036</v>
       </c>
@@ -28615,7 +28615,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="39">
         <v>46037</v>
       </c>
@@ -28651,7 +28651,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="39">
         <v>46038</v>
       </c>
@@ -28687,7 +28687,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="39">
         <v>46039</v>
       </c>
@@ -28723,7 +28723,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="39">
         <v>46040</v>
       </c>
@@ -28759,7 +28759,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="39">
         <v>46041</v>
       </c>
@@ -28795,7 +28795,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="39">
         <v>46042</v>
       </c>
@@ -28831,7 +28831,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="39">
         <v>46043</v>
       </c>
@@ -28867,7 +28867,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="39">
         <v>46044</v>
       </c>
@@ -28903,7 +28903,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="39">
         <v>46045</v>
       </c>
@@ -28939,7 +28939,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="39">
         <v>46046</v>
       </c>
@@ -28975,7 +28975,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="39">
         <v>46047</v>
       </c>
@@ -29011,7 +29011,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="39">
         <v>46048</v>
       </c>
@@ -29047,7 +29047,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="39">
         <v>46049</v>
       </c>
@@ -29083,7 +29083,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="39">
         <v>46050</v>
       </c>
@@ -29119,7 +29119,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="39">
         <v>46051</v>
       </c>
@@ -29155,7 +29155,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="39">
         <v>46052</v>
       </c>
@@ -29191,7 +29191,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="39">
         <v>46053</v>
       </c>
@@ -29227,7 +29227,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="39">
         <v>46054</v>
       </c>
@@ -29263,7 +29263,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="39">
         <v>46055</v>
       </c>
@@ -29299,7 +29299,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="39">
         <v>46056</v>
       </c>
@@ -29335,7 +29335,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="39">
         <v>46057</v>
       </c>
@@ -29371,7 +29371,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="39">
         <v>46058</v>
       </c>
@@ -29407,7 +29407,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="39">
         <v>46059</v>
       </c>
@@ -29443,7 +29443,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="39">
         <v>46060</v>
       </c>
@@ -29479,7 +29479,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="39">
         <v>46061</v>
       </c>
@@ -29515,7 +29515,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="39">
         <v>46062</v>
       </c>
@@ -29551,7 +29551,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="39">
         <v>46063</v>
       </c>
@@ -29587,7 +29587,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="39">
         <v>46064</v>
       </c>
@@ -29623,7 +29623,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="39">
         <v>46065</v>
       </c>
@@ -29659,7 +29659,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="39">
         <v>46066</v>
       </c>
@@ -29695,7 +29695,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="39">
         <v>46067</v>
       </c>
@@ -29731,7 +29731,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="39">
         <v>46068</v>
       </c>
@@ -29767,7 +29767,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="39">
         <v>46069</v>
       </c>
@@ -29803,7 +29803,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="39">
         <v>46070</v>
       </c>
@@ -29839,7 +29839,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="39">
         <v>46071</v>
       </c>
@@ -29875,7 +29875,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="39">
         <v>46072</v>
       </c>
@@ -29911,7 +29911,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="39">
         <v>46073</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="39">
         <v>46074</v>
       </c>
@@ -29983,7 +29983,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="39">
         <v>46075</v>
       </c>
@@ -30019,7 +30019,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="39">
         <v>46076</v>
       </c>
@@ -30055,7 +30055,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="39">
         <v>46077</v>
       </c>
@@ -30091,7 +30091,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="39">
         <v>46078</v>
       </c>
@@ -30127,7 +30127,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="39">
         <v>46079</v>
       </c>
@@ -30163,7 +30163,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="39">
         <v>46080</v>
       </c>
@@ -30199,7 +30199,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="39">
         <v>46081</v>
       </c>
@@ -30235,7 +30235,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="39"/>
       <c r="B215" s="30"/>
       <c r="C215"/>
@@ -30252,7 +30252,7 @@
       <c r="P215" s="20"/>
       <c r="Q215" s="28"/>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="33"/>
       <c r="B216" s="33"/>
       <c r="C216"/>
@@ -30267,7 +30267,7 @@
       <c r="M216" s="22"/>
       <c r="P216" s="22"/>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="40" t="s">
         <v>10</v>
       </c>
@@ -30315,7 +30315,7 @@
       </c>
       <c r="P217" s="23"/>
     </row>
-    <row r="218" spans="1:17" s="27" customFormat="1">
+    <row r="218" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="36" t="s">
         <v>11</v>
       </c>
@@ -30371,7 +30371,7 @@
       </c>
       <c r="P218" s="23"/>
     </row>
-    <row r="219" spans="1:17" s="27" customFormat="1">
+    <row r="219" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="s">
         <v>12</v>
       </c>
@@ -30427,7 +30427,7 @@
       </c>
       <c r="P219" s="23"/>
     </row>
-    <row r="220" spans="1:17" s="27" customFormat="1">
+    <row r="220" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="16" t="s">
         <v>13</v>
       </c>
@@ -30483,7 +30483,7 @@
       </c>
       <c r="P220" s="23"/>
     </row>
-    <row r="221" spans="1:17" s="27" customFormat="1">
+    <row r="221" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="16" t="s">
         <v>14</v>
       </c>
@@ -30539,7 +30539,7 @@
       </c>
       <c r="P221" s="23"/>
     </row>
-    <row r="222" spans="1:17" s="27" customFormat="1">
+    <row r="222" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="16" t="s">
         <v>15</v>
       </c>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="P222" s="23"/>
     </row>
-    <row r="223" spans="1:17" s="27" customFormat="1">
+    <row r="223" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="s">
         <v>16</v>
       </c>
@@ -30651,7 +30651,7 @@
       </c>
       <c r="P223" s="23"/>
     </row>
-    <row r="224" spans="1:17" s="27" customFormat="1">
+    <row r="224" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="16" t="s">
         <v>17</v>
       </c>
@@ -30671,7 +30671,7 @@
       <c r="O224" s="23"/>
       <c r="P224" s="23"/>
     </row>
-    <row r="225" spans="1:16" s="27" customFormat="1">
+    <row r="225" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="16" t="s">
         <v>18</v>
       </c>
@@ -30727,7 +30727,7 @@
       </c>
       <c r="P225" s="23"/>
     </row>
-    <row r="226" spans="1:16" s="27" customFormat="1">
+    <row r="226" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="16" t="s">
         <v>19</v>
       </c>
@@ -30783,7 +30783,7 @@
       </c>
       <c r="P226" s="23"/>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="16" t="s">
         <v>20</v>
       </c>
@@ -30839,7 +30839,7 @@
       </c>
       <c r="P227" s="23"/>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="16" t="s">
         <v>21</v>
       </c>
@@ -30895,7 +30895,7 @@
       </c>
       <c r="P228" s="23"/>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="16" t="s">
         <v>22</v>
       </c>
@@ -30950,7 +30950,7 @@
       </c>
       <c r="P229" s="23"/>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="16" t="s">
         <v>23</v>
       </c>
@@ -31005,7 +31005,7 @@
       </c>
       <c r="P230" s="23"/>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="16" t="s">
         <v>24</v>
       </c>
@@ -31060,77 +31060,77 @@
       </c>
       <c r="P231" s="22"/>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C232"/>
       <c r="D232"/>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C233"/>
       <c r="D233"/>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C234"/>
       <c r="D234"/>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C235"/>
       <c r="D235"/>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C236"/>
       <c r="D236"/>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C237"/>
       <c r="D237"/>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C238"/>
       <c r="D238"/>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C239"/>
       <c r="D239"/>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C240"/>
       <c r="D240"/>
     </row>
-    <row r="241" spans="3:4">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C241"/>
       <c r="D241"/>
     </row>
-    <row r="242" spans="3:4">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C242"/>
       <c r="D242"/>
     </row>
-    <row r="243" spans="3:4">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C243"/>
       <c r="D243"/>
     </row>
-    <row r="244" spans="3:4">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C244"/>
       <c r="D244"/>
     </row>
-    <row r="245" spans="3:4">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C245"/>
       <c r="D245"/>
     </row>
@@ -31148,12 +31148,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>31</v>
       </c>
@@ -31161,7 +31161,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
@@ -31169,7 +31169,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
@@ -31177,7 +31177,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
@@ -31185,7 +31185,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
@@ -31193,7 +31193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
@@ -31201,7 +31201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
@@ -31209,40 +31209,40 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
     </row>
   </sheetData>
@@ -31258,60 +31258,60 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75">
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.850000000000001" customHeight="1">
+    <row r="2" spans="1:1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
     </row>
-    <row r="3" spans="1:1" ht="15.75">
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75">
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
     </row>
-    <row r="5" spans="1:1" ht="15.75">
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75">
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
     </row>
-    <row r="7" spans="1:1" ht="15.75">
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
     </row>
-    <row r="11" spans="1:1" ht="15.75">
+    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75">
+    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -31330,126 +31330,126 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
     <col min="2" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="36">
+    <row r="1" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" ht="15.75">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:2" ht="15.75">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" ht="15.75">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:2" s="24" customFormat="1" ht="15.75">
+    <row r="15" spans="1:2" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:2" ht="15.75">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:2" ht="15.75">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="60"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" ht="15.75">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
     </row>
-    <row r="19" spans="1:2" ht="15.75">
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
     </row>
-    <row r="20" spans="1:2" ht="15.75">
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="59"/>
     </row>
-    <row r="21" spans="1:2" ht="15.75">
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="60"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
     </row>
   </sheetData>
